--- a/Code/Results/Cases/Case_1_254/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_254/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019181306692556</v>
+        <v>1.04409022963235</v>
       </c>
       <c r="D2">
-        <v>1.054972259594282</v>
+        <v>1.062233826183949</v>
       </c>
       <c r="E2">
-        <v>1.034973182825557</v>
+        <v>1.053260877141</v>
       </c>
       <c r="F2">
-        <v>1.050607884778179</v>
+        <v>1.067103302838565</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062178407389891</v>
+        <v>1.049281608218312</v>
       </c>
       <c r="J2">
-        <v>1.040803062229136</v>
+        <v>1.049157179334852</v>
       </c>
       <c r="K2">
-        <v>1.065715400933291</v>
+        <v>1.0649557273581</v>
       </c>
       <c r="L2">
-        <v>1.045965873872204</v>
+        <v>1.056007335212382</v>
       </c>
       <c r="M2">
-        <v>1.061404476507243</v>
+        <v>1.069812064420158</v>
       </c>
       <c r="N2">
-        <v>1.042281121959281</v>
+        <v>1.050647102869518</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023489445367056</v>
+        <v>1.045004751672497</v>
       </c>
       <c r="D3">
-        <v>1.058322026853296</v>
+        <v>1.06295056693624</v>
       </c>
       <c r="E3">
-        <v>1.038536197069245</v>
+        <v>1.054063582760123</v>
       </c>
       <c r="F3">
-        <v>1.054447554350281</v>
+        <v>1.067964173043777</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063709561799034</v>
+        <v>1.049538932090137</v>
       </c>
       <c r="J3">
-        <v>1.043359621093761</v>
+        <v>1.04971898792739</v>
       </c>
       <c r="K3">
-        <v>1.068259330205674</v>
+        <v>1.065487491057094</v>
       </c>
       <c r="L3">
-        <v>1.048698646043338</v>
+        <v>1.056623076651251</v>
       </c>
       <c r="M3">
-        <v>1.064428126531703</v>
+        <v>1.070488542877538</v>
       </c>
       <c r="N3">
-        <v>1.044841311430736</v>
+        <v>1.051209709294697</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026223381222645</v>
+        <v>1.045597069051292</v>
       </c>
       <c r="D4">
-        <v>1.060448863424484</v>
+        <v>1.063414569487869</v>
       </c>
       <c r="E4">
-        <v>1.040802665681723</v>
+        <v>1.054583818122376</v>
       </c>
       <c r="F4">
-        <v>1.056889040646233</v>
+        <v>1.068522005684063</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064670814245492</v>
+        <v>1.04970429772942</v>
       </c>
       <c r="J4">
-        <v>1.044979272274202</v>
+        <v>1.050082429337597</v>
       </c>
       <c r="K4">
-        <v>1.069868615034543</v>
+        <v>1.065831126795069</v>
       </c>
       <c r="L4">
-        <v>1.050432369348548</v>
+        <v>1.057021677186666</v>
       </c>
       <c r="M4">
-        <v>1.066346126739608</v>
+        <v>1.07092641525513</v>
       </c>
       <c r="N4">
-        <v>1.04646326270163</v>
+        <v>1.051573666833394</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027360298543371</v>
+        <v>1.045846212205914</v>
       </c>
       <c r="D5">
-        <v>1.06133351886884</v>
+        <v>1.063609687948267</v>
       </c>
       <c r="E5">
-        <v>1.041746438009632</v>
+        <v>1.054802722466563</v>
       </c>
       <c r="F5">
-        <v>1.057905458501158</v>
+        <v>1.068756706435065</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065068015007441</v>
+        <v>1.049773543742843</v>
       </c>
       <c r="J5">
-        <v>1.045652124313692</v>
+        <v>1.050235198345429</v>
       </c>
       <c r="K5">
-        <v>1.070536571868542</v>
+        <v>1.065975481998093</v>
       </c>
       <c r="L5">
-        <v>1.051153193005427</v>
+        <v>1.057189289417313</v>
       </c>
       <c r="M5">
-        <v>1.067143498755574</v>
+        <v>1.071110530223201</v>
       </c>
       <c r="N5">
-        <v>1.047137070268192</v>
+        <v>1.051726652790741</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027550475259097</v>
+        <v>1.045888052196653</v>
       </c>
       <c r="D6">
-        <v>1.06148150901978</v>
+        <v>1.063642452184172</v>
       </c>
       <c r="E6">
-        <v>1.041904379116113</v>
+        <v>1.054839488998702</v>
       </c>
       <c r="F6">
-        <v>1.05807554316905</v>
+        <v>1.068796124693245</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065134305920804</v>
+        <v>1.049785154381261</v>
       </c>
       <c r="J6">
-        <v>1.045764633809882</v>
+        <v>1.050260847626118</v>
       </c>
       <c r="K6">
-        <v>1.070648227603555</v>
+        <v>1.06599971342674</v>
       </c>
       <c r="L6">
-        <v>1.05127375817387</v>
+        <v>1.057217434590925</v>
       </c>
       <c r="M6">
-        <v>1.067276863299043</v>
+        <v>1.071141445854652</v>
       </c>
       <c r="N6">
-        <v>1.047249739540772</v>
+        <v>1.051752338496351</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026238621049699</v>
+        <v>1.045600397593554</v>
       </c>
       <c r="D7">
-        <v>1.06046072107654</v>
+        <v>1.063417176468916</v>
       </c>
       <c r="E7">
-        <v>1.040815311596236</v>
+        <v>1.054586742359285</v>
       </c>
       <c r="F7">
-        <v>1.056902660883262</v>
+        <v>1.068525141030779</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064676148612531</v>
+        <v>1.049705224074444</v>
       </c>
       <c r="J7">
-        <v>1.044988294277629</v>
+        <v>1.050084470731436</v>
       </c>
       <c r="K7">
-        <v>1.069877573753854</v>
+        <v>1.065833056107321</v>
       </c>
       <c r="L7">
-        <v>1.050442032284529</v>
+        <v>1.057023916671664</v>
       </c>
       <c r="M7">
-        <v>1.066356816111748</v>
+        <v>1.070928875278823</v>
       </c>
       <c r="N7">
-        <v>1.046472297517336</v>
+        <v>1.051575711126247</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020648650895436</v>
+        <v>1.044399179837729</v>
       </c>
       <c r="D8">
-        <v>1.056112922409036</v>
+        <v>1.062476004816964</v>
       </c>
       <c r="E8">
-        <v>1.036185585560646</v>
+        <v>1.053531982217231</v>
       </c>
       <c r="F8">
-        <v>1.051914627403995</v>
+        <v>1.067394072927274</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062702072984615</v>
+        <v>1.04936880763854</v>
       </c>
       <c r="J8">
-        <v>1.041674376534458</v>
+        <v>1.049347062391831</v>
       </c>
       <c r="K8">
-        <v>1.066582893935389</v>
+        <v>1.065135531973051</v>
       </c>
       <c r="L8">
-        <v>1.046896732061756</v>
+        <v>1.056215391002584</v>
       </c>
       <c r="M8">
-        <v>1.062434467506634</v>
+        <v>1.070040652477849</v>
       </c>
       <c r="N8">
-        <v>1.043153673630858</v>
+        <v>1.050837255582218</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010366578137902</v>
+        <v>1.042286828379538</v>
       </c>
       <c r="D9">
-        <v>1.04812699727066</v>
+        <v>1.060819325136547</v>
       </c>
       <c r="E9">
-        <v>1.027714475251019</v>
+        <v>1.051679795565532</v>
       </c>
       <c r="F9">
-        <v>1.042780347132011</v>
+        <v>1.065407128129297</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058990201806354</v>
+        <v>1.04876730040947</v>
       </c>
       <c r="J9">
-        <v>1.035558502776136</v>
+        <v>1.048047042049896</v>
       </c>
       <c r="K9">
-        <v>1.060484687945235</v>
+        <v>1.063903009419831</v>
       </c>
       <c r="L9">
-        <v>1.04037335614467</v>
+        <v>1.054792058138073</v>
       </c>
       <c r="M9">
-        <v>1.055215482569355</v>
+        <v>1.068476668630111</v>
       </c>
       <c r="N9">
-        <v>1.037029114630298</v>
+        <v>1.049535389062283</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003191270098325</v>
+        <v>1.040881590785776</v>
       </c>
       <c r="D10">
-        <v>1.042565742605383</v>
+        <v>1.059716172113234</v>
       </c>
       <c r="E10">
-        <v>1.021836074062073</v>
+        <v>1.050449425151043</v>
       </c>
       <c r="F10">
-        <v>1.036436730159997</v>
+        <v>1.064086729050283</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056347933347143</v>
+        <v>1.048360491976998</v>
       </c>
       <c r="J10">
-        <v>1.031278842312161</v>
+        <v>1.047180014800866</v>
       </c>
       <c r="K10">
-        <v>1.056206758370904</v>
+        <v>1.063079121946469</v>
       </c>
       <c r="L10">
-        <v>1.035821954877576</v>
+        <v>1.053844179754404</v>
       </c>
       <c r="M10">
-        <v>1.050177862303248</v>
+        <v>1.067434889765073</v>
       </c>
       <c r="N10">
-        <v>1.032743376557581</v>
+        <v>1.04866713053511</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000000958263534</v>
+        <v>1.040273833403788</v>
       </c>
       <c r="D11">
-        <v>1.040096800192354</v>
+        <v>1.059238824024302</v>
       </c>
       <c r="E11">
-        <v>1.019230939230822</v>
+        <v>1.049917729390659</v>
       </c>
       <c r="F11">
-        <v>1.033624259325998</v>
+        <v>1.063516006433246</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055161423867577</v>
+        <v>1.048182972223007</v>
       </c>
       <c r="J11">
-        <v>1.029373697370969</v>
+        <v>1.046804513656587</v>
       </c>
       <c r="K11">
-        <v>1.05430019463812</v>
+        <v>1.062721862609995</v>
       </c>
       <c r="L11">
-        <v>1.033799077792291</v>
+        <v>1.05343399300514</v>
       </c>
       <c r="M11">
-        <v>1.047938758185159</v>
+        <v>1.066984013809382</v>
       </c>
       <c r="N11">
-        <v>1.030835526092049</v>
+        <v>1.048291096136136</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.998802743844016</v>
+        <v>1.040048194580396</v>
       </c>
       <c r="D12">
-        <v>1.039170161227178</v>
+        <v>1.059061566115118</v>
       </c>
       <c r="E12">
-        <v>1.018253849492549</v>
+        <v>1.049720395156814</v>
       </c>
       <c r="F12">
-        <v>1.032569232671832</v>
+        <v>1.063304169424756</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054714094465307</v>
+        <v>1.048116828525955</v>
       </c>
       <c r="J12">
-        <v>1.028657860274233</v>
+        <v>1.046665025970103</v>
       </c>
       <c r="K12">
-        <v>1.053583524955455</v>
+        <v>1.062589085155234</v>
       </c>
       <c r="L12">
-        <v>1.0330394957294</v>
+        <v>1.053281670298888</v>
       </c>
       <c r="M12">
-        <v>1.047097972411187</v>
+        <v>1.06681657304777</v>
       </c>
       <c r="N12">
-        <v>1.030118672424528</v>
+        <v>1.048151410361138</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9990603730061632</v>
+        <v>1.040096589907434</v>
       </c>
       <c r="D13">
-        <v>1.039369368193068</v>
+        <v>1.059099586229564</v>
       </c>
       <c r="E13">
-        <v>1.01846387267478</v>
+        <v>1.049762716697799</v>
       </c>
       <c r="F13">
-        <v>1.032796015985589</v>
+        <v>1.063349602150552</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054810351114839</v>
+        <v>1.048131025836583</v>
       </c>
       <c r="J13">
-        <v>1.028811786117212</v>
+        <v>1.046694946980574</v>
       </c>
       <c r="K13">
-        <v>1.053737642874792</v>
+        <v>1.062617569762749</v>
       </c>
       <c r="L13">
-        <v>1.033202805713558</v>
+        <v>1.053314342255681</v>
       </c>
       <c r="M13">
-        <v>1.047278741561698</v>
+        <v>1.066852488069104</v>
       </c>
       <c r="N13">
-        <v>1.03027281685986</v>
+        <v>1.048181373862875</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.999902186583473</v>
+        <v>1.040255179791078</v>
       </c>
       <c r="D14">
-        <v>1.040020401527159</v>
+        <v>1.059224170791869</v>
       </c>
       <c r="E14">
-        <v>1.01915036769199</v>
+        <v>1.049901414382842</v>
       </c>
       <c r="F14">
-        <v>1.03353726455284</v>
+        <v>1.063498492752658</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055124583691547</v>
+        <v>1.048177508941234</v>
       </c>
       <c r="J14">
-        <v>1.029314695148555</v>
+        <v>1.046792983755505</v>
       </c>
       <c r="K14">
-        <v>1.054241129704387</v>
+        <v>1.062710888715486</v>
       </c>
       <c r="L14">
-        <v>1.033736459905941</v>
+        <v>1.053421401161739</v>
       </c>
       <c r="M14">
-        <v>1.047869446270133</v>
+        <v>1.066970172388888</v>
       </c>
       <c r="N14">
-        <v>1.030776440079711</v>
+        <v>1.048279549861271</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000419087131827</v>
+        <v>1.04035290677535</v>
       </c>
       <c r="D15">
-        <v>1.040420244446913</v>
+        <v>1.059300938184533</v>
       </c>
       <c r="E15">
-        <v>1.019572076863663</v>
+        <v>1.049986892018002</v>
       </c>
       <c r="F15">
-        <v>1.033992585716035</v>
+        <v>1.063590249727856</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055317309881008</v>
+        <v>1.0482061215791</v>
       </c>
       <c r="J15">
-        <v>1.029623458551916</v>
+        <v>1.046853386175945</v>
       </c>
       <c r="K15">
-        <v>1.054550209250689</v>
+        <v>1.062768375645384</v>
       </c>
       <c r="L15">
-        <v>1.034064164443245</v>
+        <v>1.053487368880672</v>
       </c>
       <c r="M15">
-        <v>1.048232182930708</v>
+        <v>1.067042686215335</v>
       </c>
       <c r="N15">
-        <v>1.031085641962521</v>
+        <v>1.048340038060076</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003401188411335</v>
+        <v>1.040921940907928</v>
       </c>
       <c r="D16">
-        <v>1.042728280452044</v>
+        <v>1.059747859113025</v>
       </c>
       <c r="E16">
-        <v>1.022007671664278</v>
+        <v>1.050484734573277</v>
       </c>
       <c r="F16">
-        <v>1.036621960627276</v>
+        <v>1.064124627643301</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056425764966842</v>
+        <v>1.048372244596474</v>
       </c>
       <c r="J16">
-        <v>1.031404153763581</v>
+        <v>1.047204934136217</v>
       </c>
       <c r="K16">
-        <v>1.056332119979973</v>
+        <v>1.063102821423482</v>
       </c>
       <c r="L16">
-        <v>1.035955078077823</v>
+        <v>1.053871407887989</v>
       </c>
       <c r="M16">
-        <v>1.05032521315589</v>
+        <v>1.067464817697916</v>
       </c>
       <c r="N16">
-        <v>1.032868865965636</v>
+        <v>1.048692085258775</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005249007520981</v>
+        <v>1.041279074528018</v>
       </c>
       <c r="D17">
-        <v>1.044159464114619</v>
+        <v>1.060028288855034</v>
       </c>
       <c r="E17">
-        <v>1.023519150519832</v>
+        <v>1.050797303698427</v>
       </c>
       <c r="F17">
-        <v>1.03825338869944</v>
+        <v>1.064460102783217</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05710955703171</v>
+        <v>1.04847608316133</v>
       </c>
       <c r="J17">
-        <v>1.032506957859595</v>
+        <v>1.047425432194492</v>
       </c>
       <c r="K17">
-        <v>1.057435119700612</v>
+        <v>1.063312474623072</v>
       </c>
       <c r="L17">
-        <v>1.037126998608572</v>
+        <v>1.054112373437363</v>
       </c>
       <c r="M17">
-        <v>1.051622370161135</v>
+        <v>1.06772966983662</v>
       </c>
       <c r="N17">
-        <v>1.033973236169959</v>
+        <v>1.048912896449584</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00631881381654</v>
+        <v>1.04148745389355</v>
       </c>
       <c r="D18">
-        <v>1.044988404537769</v>
+        <v>1.060191889971198</v>
       </c>
       <c r="E18">
-        <v>1.024395037565534</v>
+        <v>1.050979722414793</v>
       </c>
       <c r="F18">
-        <v>1.039198674006452</v>
+        <v>1.064655877951057</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057504328256922</v>
+        <v>1.048536518300412</v>
       </c>
       <c r="J18">
-        <v>1.033145211188151</v>
+        <v>1.047554037902474</v>
       </c>
       <c r="K18">
-        <v>1.058073276469304</v>
+        <v>1.063434712433388</v>
       </c>
       <c r="L18">
-        <v>1.037805560226464</v>
+        <v>1.054252948686041</v>
       </c>
       <c r="M18">
-        <v>1.052373433275443</v>
+        <v>1.067884174852714</v>
       </c>
       <c r="N18">
-        <v>1.034612395891451</v>
+        <v>1.049041684792423</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006682253519358</v>
+        <v>1.041558517601882</v>
       </c>
       <c r="D19">
-        <v>1.045270072665316</v>
+        <v>1.060247678963568</v>
       </c>
       <c r="E19">
-        <v>1.024692733210274</v>
+        <v>1.051041939809463</v>
       </c>
       <c r="F19">
-        <v>1.039519937750075</v>
+        <v>1.06472264882762</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05763825116286</v>
+        <v>1.048557102686014</v>
       </c>
       <c r="J19">
-        <v>1.033362002787567</v>
+        <v>1.047597887892233</v>
       </c>
       <c r="K19">
-        <v>1.058289998828975</v>
+        <v>1.063476383957408</v>
       </c>
       <c r="L19">
-        <v>1.038036094988848</v>
+        <v>1.05430088526692</v>
       </c>
       <c r="M19">
-        <v>1.052628597377316</v>
+        <v>1.067936860630807</v>
       </c>
       <c r="N19">
-        <v>1.034829495359803</v>
+        <v>1.049085597054197</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.005051585695038</v>
+        <v>1.041240750286866</v>
       </c>
       <c r="D20">
-        <v>1.044006519138627</v>
+        <v>1.059998198159187</v>
       </c>
       <c r="E20">
-        <v>1.023357579298359</v>
+        <v>1.05076375738279</v>
       </c>
       <c r="F20">
-        <v>1.038079006879456</v>
+        <v>1.064424099306569</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05703661559083</v>
+        <v>1.048464955928566</v>
       </c>
       <c r="J20">
-        <v>1.032389156499706</v>
+        <v>1.047401775564085</v>
       </c>
       <c r="K20">
-        <v>1.057317319002247</v>
+        <v>1.063289985914516</v>
       </c>
       <c r="L20">
-        <v>1.037001782375411</v>
+        <v>1.054086517610603</v>
       </c>
       <c r="M20">
-        <v>1.051483774027824</v>
+        <v>1.067701251501019</v>
       </c>
       <c r="N20">
-        <v>1.033855267518627</v>
+        <v>1.048889206224049</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.999654663171694</v>
+        <v>1.040208475995495</v>
       </c>
       <c r="D21">
-        <v>1.039828955923338</v>
+        <v>1.059187482337999</v>
       </c>
       <c r="E21">
-        <v>1.018948475999529</v>
+        <v>1.049860566907704</v>
       </c>
       <c r="F21">
-        <v>1.033319275098797</v>
+        <v>1.063454643894881</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055032234405094</v>
+        <v>1.048163826477458</v>
       </c>
       <c r="J21">
-        <v>1.02916682987506</v>
+        <v>1.046764114631898</v>
       </c>
       <c r="K21">
-        <v>1.054093102547884</v>
+        <v>1.062683410681741</v>
       </c>
       <c r="L21">
-        <v>1.033579541367292</v>
+        <v>1.053389873898132</v>
       </c>
       <c r="M21">
-        <v>1.047695752541021</v>
+        <v>1.066935516322214</v>
       </c>
       <c r="N21">
-        <v>1.030628364820568</v>
+        <v>1.048250639740197</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9961847239756778</v>
+        <v>1.039560077312855</v>
       </c>
       <c r="D22">
-        <v>1.037146797200672</v>
+        <v>1.058678045697631</v>
       </c>
       <c r="E22">
-        <v>1.016121514061639</v>
+        <v>1.049293628905603</v>
       </c>
       <c r="F22">
-        <v>1.030266498184902</v>
+        <v>1.062846005169843</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053733645252687</v>
+        <v>1.047973308984681</v>
       </c>
       <c r="J22">
-        <v>1.02709329144521</v>
+        <v>1.046363135480389</v>
       </c>
       <c r="K22">
-        <v>1.052016619295695</v>
+        <v>1.062301596978029</v>
       </c>
       <c r="L22">
-        <v>1.031380225866726</v>
+        <v>1.052952092111059</v>
       </c>
       <c r="M22">
-        <v>1.045261304961121</v>
+        <v>1.066454269361212</v>
       </c>
       <c r="N22">
-        <v>1.028551881728309</v>
+        <v>1.0478490911523</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9980317073098304</v>
+        <v>1.039903745309674</v>
       </c>
       <c r="D23">
-        <v>1.03857407268581</v>
+        <v>1.058948079406452</v>
       </c>
       <c r="E23">
-        <v>1.017625490746702</v>
+        <v>1.049594084436404</v>
       </c>
       <c r="F23">
-        <v>1.031890704923295</v>
+        <v>1.063168570539078</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05442577119721</v>
+        <v>1.048074418037858</v>
       </c>
       <c r="J23">
-        <v>1.028197147349522</v>
+        <v>1.046575707105731</v>
       </c>
       <c r="K23">
-        <v>1.05312219557341</v>
+        <v>1.062504044524345</v>
       </c>
       <c r="L23">
-        <v>1.032550767758193</v>
+        <v>1.05318414670907</v>
       </c>
       <c r="M23">
-        <v>1.046556994390921</v>
+        <v>1.066709367942495</v>
       </c>
       <c r="N23">
-        <v>1.02965730523462</v>
+        <v>1.048061964653733</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00514081677975</v>
+        <v>1.041258067147567</v>
       </c>
       <c r="D24">
-        <v>1.044075646422072</v>
+        <v>1.060011794753218</v>
       </c>
       <c r="E24">
-        <v>1.023430604062929</v>
+        <v>1.050778915202519</v>
       </c>
       <c r="F24">
-        <v>1.038157821948738</v>
+        <v>1.064440367424704</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057069587258072</v>
+        <v>1.048469984254444</v>
       </c>
       <c r="J24">
-        <v>1.032442401268953</v>
+        <v>1.047412464999059</v>
       </c>
       <c r="K24">
-        <v>1.057370564125124</v>
+        <v>1.063300147746532</v>
       </c>
       <c r="L24">
-        <v>1.037058377625539</v>
+        <v>1.054098200671369</v>
       </c>
       <c r="M24">
-        <v>1.05154641676643</v>
+        <v>1.067714092458137</v>
       </c>
       <c r="N24">
-        <v>1.033908587901553</v>
+        <v>1.048899910839247</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01307891599475</v>
+        <v>1.042832399074353</v>
       </c>
       <c r="D25">
-        <v>1.050231909626337</v>
+        <v>1.061247394704037</v>
       </c>
       <c r="E25">
-        <v>1.029943592050302</v>
+        <v>1.052157857903202</v>
       </c>
       <c r="F25">
-        <v>1.045184848475172</v>
+        <v>1.06592006270672</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059978531506353</v>
+        <v>1.048923830654778</v>
       </c>
       <c r="J25">
-        <v>1.037173999336955</v>
+        <v>1.048383194387731</v>
       </c>
       <c r="K25">
-        <v>1.062097455684633</v>
+        <v>1.064222040494087</v>
       </c>
       <c r="L25">
-        <v>1.042094198325845</v>
+        <v>1.055159851154315</v>
       </c>
       <c r="M25">
-        <v>1.057120003591063</v>
+        <v>1.068880847573111</v>
       </c>
       <c r="N25">
-        <v>1.038646905381534</v>
+        <v>1.049872018774995</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_254/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_254/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04409022963235</v>
+        <v>1.019181306692555</v>
       </c>
       <c r="D2">
-        <v>1.062233826183949</v>
+        <v>1.054972259594281</v>
       </c>
       <c r="E2">
-        <v>1.053260877141</v>
+        <v>1.034973182825556</v>
       </c>
       <c r="F2">
-        <v>1.067103302838565</v>
+        <v>1.050607884778179</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049281608218312</v>
+        <v>1.06217840738989</v>
       </c>
       <c r="J2">
-        <v>1.049157179334852</v>
+        <v>1.040803062229135</v>
       </c>
       <c r="K2">
-        <v>1.0649557273581</v>
+        <v>1.065715400933291</v>
       </c>
       <c r="L2">
-        <v>1.056007335212382</v>
+        <v>1.045965873872203</v>
       </c>
       <c r="M2">
-        <v>1.069812064420158</v>
+        <v>1.061404476507242</v>
       </c>
       <c r="N2">
-        <v>1.050647102869518</v>
+        <v>1.042281121959281</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045004751672497</v>
+        <v>1.023489445367055</v>
       </c>
       <c r="D3">
-        <v>1.06295056693624</v>
+        <v>1.058322026853296</v>
       </c>
       <c r="E3">
-        <v>1.054063582760123</v>
+        <v>1.038536197069244</v>
       </c>
       <c r="F3">
-        <v>1.067964173043777</v>
+        <v>1.05444755435028</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049538932090137</v>
+        <v>1.063709561799033</v>
       </c>
       <c r="J3">
-        <v>1.04971898792739</v>
+        <v>1.043359621093761</v>
       </c>
       <c r="K3">
-        <v>1.065487491057094</v>
+        <v>1.068259330205674</v>
       </c>
       <c r="L3">
-        <v>1.056623076651251</v>
+        <v>1.048698646043337</v>
       </c>
       <c r="M3">
-        <v>1.070488542877538</v>
+        <v>1.064428126531702</v>
       </c>
       <c r="N3">
-        <v>1.051209709294697</v>
+        <v>1.044841311430735</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045597069051292</v>
+        <v>1.026223381222644</v>
       </c>
       <c r="D4">
-        <v>1.063414569487869</v>
+        <v>1.060448863424483</v>
       </c>
       <c r="E4">
-        <v>1.054583818122376</v>
+        <v>1.040802665681722</v>
       </c>
       <c r="F4">
-        <v>1.068522005684063</v>
+        <v>1.056889040646232</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04970429772942</v>
+        <v>1.064670814245492</v>
       </c>
       <c r="J4">
-        <v>1.050082429337597</v>
+        <v>1.044979272274202</v>
       </c>
       <c r="K4">
-        <v>1.065831126795069</v>
+        <v>1.069868615034542</v>
       </c>
       <c r="L4">
-        <v>1.057021677186666</v>
+        <v>1.050432369348548</v>
       </c>
       <c r="M4">
-        <v>1.07092641525513</v>
+        <v>1.066346126739608</v>
       </c>
       <c r="N4">
-        <v>1.051573666833394</v>
+        <v>1.046463262701629</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045846212205914</v>
+        <v>1.02736029854337</v>
       </c>
       <c r="D5">
-        <v>1.063609687948267</v>
+        <v>1.061333518868839</v>
       </c>
       <c r="E5">
-        <v>1.054802722466563</v>
+        <v>1.041746438009631</v>
       </c>
       <c r="F5">
-        <v>1.068756706435065</v>
+        <v>1.057905458501157</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049773543742843</v>
+        <v>1.065068015007441</v>
       </c>
       <c r="J5">
-        <v>1.050235198345429</v>
+        <v>1.045652124313691</v>
       </c>
       <c r="K5">
-        <v>1.065975481998093</v>
+        <v>1.070536571868541</v>
       </c>
       <c r="L5">
-        <v>1.057189289417313</v>
+        <v>1.051153193005426</v>
       </c>
       <c r="M5">
-        <v>1.071110530223201</v>
+        <v>1.067143498755573</v>
       </c>
       <c r="N5">
-        <v>1.051726652790741</v>
+        <v>1.047137070268191</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045888052196653</v>
+        <v>1.027550475259097</v>
       </c>
       <c r="D6">
-        <v>1.063642452184172</v>
+        <v>1.06148150901978</v>
       </c>
       <c r="E6">
-        <v>1.054839488998702</v>
+        <v>1.041904379116113</v>
       </c>
       <c r="F6">
-        <v>1.068796124693245</v>
+        <v>1.058075543169051</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049785154381261</v>
+        <v>1.065134305920805</v>
       </c>
       <c r="J6">
-        <v>1.050260847626118</v>
+        <v>1.045764633809882</v>
       </c>
       <c r="K6">
-        <v>1.06599971342674</v>
+        <v>1.070648227603556</v>
       </c>
       <c r="L6">
-        <v>1.057217434590925</v>
+        <v>1.05127375817387</v>
       </c>
       <c r="M6">
-        <v>1.071141445854652</v>
+        <v>1.067276863299043</v>
       </c>
       <c r="N6">
-        <v>1.051752338496351</v>
+        <v>1.047249739540772</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045600397593554</v>
+        <v>1.026238621049698</v>
       </c>
       <c r="D7">
-        <v>1.063417176468916</v>
+        <v>1.06046072107654</v>
       </c>
       <c r="E7">
-        <v>1.054586742359285</v>
+        <v>1.040815311596236</v>
       </c>
       <c r="F7">
-        <v>1.068525141030779</v>
+        <v>1.056902660883262</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049705224074444</v>
+        <v>1.064676148612531</v>
       </c>
       <c r="J7">
-        <v>1.050084470731436</v>
+        <v>1.044988294277628</v>
       </c>
       <c r="K7">
-        <v>1.065833056107321</v>
+        <v>1.069877573753854</v>
       </c>
       <c r="L7">
-        <v>1.057023916671664</v>
+        <v>1.050442032284529</v>
       </c>
       <c r="M7">
-        <v>1.070928875278823</v>
+        <v>1.066356816111747</v>
       </c>
       <c r="N7">
-        <v>1.051575711126247</v>
+        <v>1.046472297517335</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044399179837729</v>
+        <v>1.020648650895436</v>
       </c>
       <c r="D8">
-        <v>1.062476004816964</v>
+        <v>1.056112922409036</v>
       </c>
       <c r="E8">
-        <v>1.053531982217231</v>
+        <v>1.036185585560645</v>
       </c>
       <c r="F8">
-        <v>1.067394072927274</v>
+        <v>1.051914627403994</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04936880763854</v>
+        <v>1.062702072984614</v>
       </c>
       <c r="J8">
-        <v>1.049347062391831</v>
+        <v>1.041674376534458</v>
       </c>
       <c r="K8">
-        <v>1.065135531973051</v>
+        <v>1.066582893935389</v>
       </c>
       <c r="L8">
-        <v>1.056215391002584</v>
+        <v>1.046896732061755</v>
       </c>
       <c r="M8">
-        <v>1.070040652477849</v>
+        <v>1.062434467506633</v>
       </c>
       <c r="N8">
-        <v>1.050837255582218</v>
+        <v>1.043153673630857</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042286828379538</v>
+        <v>1.010366578137903</v>
       </c>
       <c r="D9">
-        <v>1.060819325136547</v>
+        <v>1.04812699727066</v>
       </c>
       <c r="E9">
-        <v>1.051679795565532</v>
+        <v>1.02771447525102</v>
       </c>
       <c r="F9">
-        <v>1.065407128129297</v>
+        <v>1.042780347132012</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04876730040947</v>
+        <v>1.058990201806354</v>
       </c>
       <c r="J9">
-        <v>1.048047042049896</v>
+        <v>1.035558502776136</v>
       </c>
       <c r="K9">
-        <v>1.063903009419831</v>
+        <v>1.060484687945235</v>
       </c>
       <c r="L9">
-        <v>1.054792058138073</v>
+        <v>1.04037335614467</v>
       </c>
       <c r="M9">
-        <v>1.068476668630111</v>
+        <v>1.055215482569356</v>
       </c>
       <c r="N9">
-        <v>1.049535389062283</v>
+        <v>1.037029114630298</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040881590785776</v>
+        <v>1.003191270098324</v>
       </c>
       <c r="D10">
-        <v>1.059716172113234</v>
+        <v>1.042565742605382</v>
       </c>
       <c r="E10">
-        <v>1.050449425151043</v>
+        <v>1.021836074062072</v>
       </c>
       <c r="F10">
-        <v>1.064086729050283</v>
+        <v>1.036436730159996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048360491976998</v>
+        <v>1.056347933347143</v>
       </c>
       <c r="J10">
-        <v>1.047180014800866</v>
+        <v>1.031278842312161</v>
       </c>
       <c r="K10">
-        <v>1.063079121946469</v>
+        <v>1.056206758370904</v>
       </c>
       <c r="L10">
-        <v>1.053844179754404</v>
+        <v>1.035821954877576</v>
       </c>
       <c r="M10">
-        <v>1.067434889765073</v>
+        <v>1.050177862303247</v>
       </c>
       <c r="N10">
-        <v>1.04866713053511</v>
+        <v>1.032743376557581</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040273833403788</v>
+        <v>1.000000958263534</v>
       </c>
       <c r="D11">
-        <v>1.059238824024302</v>
+        <v>1.040096800192353</v>
       </c>
       <c r="E11">
-        <v>1.049917729390659</v>
+        <v>1.019230939230821</v>
       </c>
       <c r="F11">
-        <v>1.063516006433246</v>
+        <v>1.033624259325997</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048182972223007</v>
+        <v>1.055161423867576</v>
       </c>
       <c r="J11">
-        <v>1.046804513656587</v>
+        <v>1.029373697370968</v>
       </c>
       <c r="K11">
-        <v>1.062721862609995</v>
+        <v>1.054300194638119</v>
       </c>
       <c r="L11">
-        <v>1.05343399300514</v>
+        <v>1.033799077792291</v>
       </c>
       <c r="M11">
-        <v>1.066984013809382</v>
+        <v>1.047938758185158</v>
       </c>
       <c r="N11">
-        <v>1.048291096136136</v>
+        <v>1.030835526092049</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040048194580396</v>
+        <v>0.9988027438440157</v>
       </c>
       <c r="D12">
-        <v>1.059061566115118</v>
+        <v>1.039170161227178</v>
       </c>
       <c r="E12">
-        <v>1.049720395156814</v>
+        <v>1.018253849492549</v>
       </c>
       <c r="F12">
-        <v>1.063304169424756</v>
+        <v>1.032569232671832</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048116828525955</v>
+        <v>1.054714094465307</v>
       </c>
       <c r="J12">
-        <v>1.046665025970103</v>
+        <v>1.028657860274233</v>
       </c>
       <c r="K12">
-        <v>1.062589085155234</v>
+        <v>1.053583524955456</v>
       </c>
       <c r="L12">
-        <v>1.053281670298888</v>
+        <v>1.033039495729399</v>
       </c>
       <c r="M12">
-        <v>1.06681657304777</v>
+        <v>1.047097972411188</v>
       </c>
       <c r="N12">
-        <v>1.048151410361138</v>
+        <v>1.030118672424528</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040096589907434</v>
+        <v>0.9990603730061633</v>
       </c>
       <c r="D13">
-        <v>1.059099586229564</v>
+        <v>1.039369368193068</v>
       </c>
       <c r="E13">
-        <v>1.049762716697799</v>
+        <v>1.018463872674781</v>
       </c>
       <c r="F13">
-        <v>1.063349602150552</v>
+        <v>1.03279601598559</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048131025836583</v>
+        <v>1.054810351114839</v>
       </c>
       <c r="J13">
-        <v>1.046694946980574</v>
+        <v>1.028811786117212</v>
       </c>
       <c r="K13">
-        <v>1.062617569762749</v>
+        <v>1.053737642874793</v>
       </c>
       <c r="L13">
-        <v>1.053314342255681</v>
+        <v>1.033202805713558</v>
       </c>
       <c r="M13">
-        <v>1.066852488069104</v>
+        <v>1.047278741561698</v>
       </c>
       <c r="N13">
-        <v>1.048181373862875</v>
+        <v>1.03027281685986</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040255179791078</v>
+        <v>0.9999021865834724</v>
       </c>
       <c r="D14">
-        <v>1.059224170791869</v>
+        <v>1.040020401527159</v>
       </c>
       <c r="E14">
-        <v>1.049901414382842</v>
+        <v>1.01915036769199</v>
       </c>
       <c r="F14">
-        <v>1.063498492752658</v>
+        <v>1.03353726455284</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048177508941234</v>
+        <v>1.055124583691547</v>
       </c>
       <c r="J14">
-        <v>1.046792983755505</v>
+        <v>1.029314695148554</v>
       </c>
       <c r="K14">
-        <v>1.062710888715486</v>
+        <v>1.054241129704387</v>
       </c>
       <c r="L14">
-        <v>1.053421401161739</v>
+        <v>1.033736459905941</v>
       </c>
       <c r="M14">
-        <v>1.066970172388888</v>
+        <v>1.047869446270132</v>
       </c>
       <c r="N14">
-        <v>1.048279549861271</v>
+        <v>1.030776440079711</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04035290677535</v>
+        <v>1.000419087131827</v>
       </c>
       <c r="D15">
-        <v>1.059300938184533</v>
+        <v>1.040420244446913</v>
       </c>
       <c r="E15">
-        <v>1.049986892018002</v>
+        <v>1.019572076863662</v>
       </c>
       <c r="F15">
-        <v>1.063590249727856</v>
+        <v>1.033992585716035</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0482061215791</v>
+        <v>1.055317309881008</v>
       </c>
       <c r="J15">
-        <v>1.046853386175945</v>
+        <v>1.029623458551916</v>
       </c>
       <c r="K15">
-        <v>1.062768375645384</v>
+        <v>1.05455020925069</v>
       </c>
       <c r="L15">
-        <v>1.053487368880672</v>
+        <v>1.034064164443245</v>
       </c>
       <c r="M15">
-        <v>1.067042686215335</v>
+        <v>1.048232182930708</v>
       </c>
       <c r="N15">
-        <v>1.048340038060076</v>
+        <v>1.031085641962521</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040921940907928</v>
+        <v>1.003401188411334</v>
       </c>
       <c r="D16">
-        <v>1.059747859113025</v>
+        <v>1.042728280452043</v>
       </c>
       <c r="E16">
-        <v>1.050484734573277</v>
+        <v>1.022007671664277</v>
       </c>
       <c r="F16">
-        <v>1.064124627643301</v>
+        <v>1.036621960627275</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048372244596474</v>
+        <v>1.056425764966842</v>
       </c>
       <c r="J16">
-        <v>1.047204934136217</v>
+        <v>1.031404153763581</v>
       </c>
       <c r="K16">
-        <v>1.063102821423482</v>
+        <v>1.056332119979972</v>
       </c>
       <c r="L16">
-        <v>1.053871407887989</v>
+        <v>1.035955078077822</v>
       </c>
       <c r="M16">
-        <v>1.067464817697916</v>
+        <v>1.050325213155889</v>
       </c>
       <c r="N16">
-        <v>1.048692085258775</v>
+        <v>1.032868865965635</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041279074528018</v>
+        <v>1.00524900752098</v>
       </c>
       <c r="D17">
-        <v>1.060028288855034</v>
+        <v>1.044159464114617</v>
       </c>
       <c r="E17">
-        <v>1.050797303698427</v>
+        <v>1.02351915051983</v>
       </c>
       <c r="F17">
-        <v>1.064460102783217</v>
+        <v>1.038253388699439</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04847608316133</v>
+        <v>1.057109557031709</v>
       </c>
       <c r="J17">
-        <v>1.047425432194492</v>
+        <v>1.032506957859594</v>
       </c>
       <c r="K17">
-        <v>1.063312474623072</v>
+        <v>1.05743511970061</v>
       </c>
       <c r="L17">
-        <v>1.054112373437363</v>
+        <v>1.037126998608571</v>
       </c>
       <c r="M17">
-        <v>1.06772966983662</v>
+        <v>1.051622370161133</v>
       </c>
       <c r="N17">
-        <v>1.048912896449584</v>
+        <v>1.033973236169958</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04148745389355</v>
+        <v>1.00631881381654</v>
       </c>
       <c r="D18">
-        <v>1.060191889971198</v>
+        <v>1.044988404537768</v>
       </c>
       <c r="E18">
-        <v>1.050979722414793</v>
+        <v>1.024395037565534</v>
       </c>
       <c r="F18">
-        <v>1.064655877951057</v>
+        <v>1.039198674006451</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048536518300412</v>
+        <v>1.057504328256922</v>
       </c>
       <c r="J18">
-        <v>1.047554037902474</v>
+        <v>1.033145211188151</v>
       </c>
       <c r="K18">
-        <v>1.063434712433388</v>
+        <v>1.058073276469304</v>
       </c>
       <c r="L18">
-        <v>1.054252948686041</v>
+        <v>1.037805560226464</v>
       </c>
       <c r="M18">
-        <v>1.067884174852714</v>
+        <v>1.052373433275443</v>
       </c>
       <c r="N18">
-        <v>1.049041684792423</v>
+        <v>1.03461239589145</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041558517601882</v>
+        <v>1.006682253519358</v>
       </c>
       <c r="D19">
-        <v>1.060247678963568</v>
+        <v>1.045270072665316</v>
       </c>
       <c r="E19">
-        <v>1.051041939809463</v>
+        <v>1.024692733210274</v>
       </c>
       <c r="F19">
-        <v>1.06472264882762</v>
+        <v>1.039519937750075</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048557102686014</v>
+        <v>1.05763825116286</v>
       </c>
       <c r="J19">
-        <v>1.047597887892233</v>
+        <v>1.033362002787566</v>
       </c>
       <c r="K19">
-        <v>1.063476383957408</v>
+        <v>1.058289998828975</v>
       </c>
       <c r="L19">
-        <v>1.05430088526692</v>
+        <v>1.038036094988848</v>
       </c>
       <c r="M19">
-        <v>1.067936860630807</v>
+        <v>1.052628597377316</v>
       </c>
       <c r="N19">
-        <v>1.049085597054197</v>
+        <v>1.034829495359803</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041240750286866</v>
+        <v>1.005051585695038</v>
       </c>
       <c r="D20">
-        <v>1.059998198159187</v>
+        <v>1.044006519138627</v>
       </c>
       <c r="E20">
-        <v>1.05076375738279</v>
+        <v>1.023357579298359</v>
       </c>
       <c r="F20">
-        <v>1.064424099306569</v>
+        <v>1.038079006879456</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048464955928566</v>
+        <v>1.05703661559083</v>
       </c>
       <c r="J20">
-        <v>1.047401775564085</v>
+        <v>1.032389156499706</v>
       </c>
       <c r="K20">
-        <v>1.063289985914516</v>
+        <v>1.057317319002247</v>
       </c>
       <c r="L20">
-        <v>1.054086517610603</v>
+        <v>1.037001782375411</v>
       </c>
       <c r="M20">
-        <v>1.067701251501019</v>
+        <v>1.051483774027824</v>
       </c>
       <c r="N20">
-        <v>1.048889206224049</v>
+        <v>1.033855267518627</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040208475995495</v>
+        <v>0.9996546631716924</v>
       </c>
       <c r="D21">
-        <v>1.059187482337999</v>
+        <v>1.039828955923337</v>
       </c>
       <c r="E21">
-        <v>1.049860566907704</v>
+        <v>1.018948475999528</v>
       </c>
       <c r="F21">
-        <v>1.063454643894881</v>
+        <v>1.033319275098796</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048163826477458</v>
+        <v>1.055032234405093</v>
       </c>
       <c r="J21">
-        <v>1.046764114631898</v>
+        <v>1.029166829875058</v>
       </c>
       <c r="K21">
-        <v>1.062683410681741</v>
+        <v>1.054093102547883</v>
       </c>
       <c r="L21">
-        <v>1.053389873898132</v>
+        <v>1.033579541367291</v>
       </c>
       <c r="M21">
-        <v>1.066935516322214</v>
+        <v>1.047695752541019</v>
       </c>
       <c r="N21">
-        <v>1.048250639740197</v>
+        <v>1.030628364820566</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039560077312855</v>
+        <v>0.996184723975677</v>
       </c>
       <c r="D22">
-        <v>1.058678045697631</v>
+        <v>1.037146797200672</v>
       </c>
       <c r="E22">
-        <v>1.049293628905603</v>
+        <v>1.016121514061638</v>
       </c>
       <c r="F22">
-        <v>1.062846005169843</v>
+        <v>1.030266498184901</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047973308984681</v>
+        <v>1.053733645252686</v>
       </c>
       <c r="J22">
-        <v>1.046363135480389</v>
+        <v>1.027093291445209</v>
       </c>
       <c r="K22">
-        <v>1.062301596978029</v>
+        <v>1.052016619295694</v>
       </c>
       <c r="L22">
-        <v>1.052952092111059</v>
+        <v>1.031380225866725</v>
       </c>
       <c r="M22">
-        <v>1.066454269361212</v>
+        <v>1.04526130496112</v>
       </c>
       <c r="N22">
-        <v>1.0478490911523</v>
+        <v>1.028551881728308</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039903745309674</v>
+        <v>0.9980317073098303</v>
       </c>
       <c r="D23">
-        <v>1.058948079406452</v>
+        <v>1.03857407268581</v>
       </c>
       <c r="E23">
-        <v>1.049594084436404</v>
+        <v>1.017625490746702</v>
       </c>
       <c r="F23">
-        <v>1.063168570539078</v>
+        <v>1.031890704923295</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048074418037858</v>
+        <v>1.05442577119721</v>
       </c>
       <c r="J23">
-        <v>1.046575707105731</v>
+        <v>1.028197147349522</v>
       </c>
       <c r="K23">
-        <v>1.062504044524345</v>
+        <v>1.05312219557341</v>
       </c>
       <c r="L23">
-        <v>1.05318414670907</v>
+        <v>1.032550767758193</v>
       </c>
       <c r="M23">
-        <v>1.066709367942495</v>
+        <v>1.046556994390922</v>
       </c>
       <c r="N23">
-        <v>1.048061964653733</v>
+        <v>1.02965730523462</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041258067147567</v>
+        <v>1.005140816779749</v>
       </c>
       <c r="D24">
-        <v>1.060011794753218</v>
+        <v>1.044075646422073</v>
       </c>
       <c r="E24">
-        <v>1.050778915202519</v>
+        <v>1.023430604062929</v>
       </c>
       <c r="F24">
-        <v>1.064440367424704</v>
+        <v>1.038157821948739</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048469984254444</v>
+        <v>1.057069587258072</v>
       </c>
       <c r="J24">
-        <v>1.047412464999059</v>
+        <v>1.032442401268952</v>
       </c>
       <c r="K24">
-        <v>1.063300147746532</v>
+        <v>1.057370564125124</v>
       </c>
       <c r="L24">
-        <v>1.054098200671369</v>
+        <v>1.037058377625539</v>
       </c>
       <c r="M24">
-        <v>1.067714092458137</v>
+        <v>1.051546416766431</v>
       </c>
       <c r="N24">
-        <v>1.048899910839247</v>
+        <v>1.033908587901553</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042832399074353</v>
+        <v>1.013078915994749</v>
       </c>
       <c r="D25">
-        <v>1.061247394704037</v>
+        <v>1.050231909626337</v>
       </c>
       <c r="E25">
-        <v>1.052157857903202</v>
+        <v>1.029943592050301</v>
       </c>
       <c r="F25">
-        <v>1.06592006270672</v>
+        <v>1.045184848475171</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048923830654778</v>
+        <v>1.059978531506353</v>
       </c>
       <c r="J25">
-        <v>1.048383194387731</v>
+        <v>1.037173999336954</v>
       </c>
       <c r="K25">
-        <v>1.064222040494087</v>
+        <v>1.062097455684633</v>
       </c>
       <c r="L25">
-        <v>1.055159851154315</v>
+        <v>1.042094198325844</v>
       </c>
       <c r="M25">
-        <v>1.068880847573111</v>
+        <v>1.057120003591063</v>
       </c>
       <c r="N25">
-        <v>1.049872018774995</v>
+        <v>1.038646905381533</v>
       </c>
     </row>
   </sheetData>
